--- a/biology/Botanique/Bryophyllum/Bryophyllum.xlsx
+++ b/biology/Botanique/Bryophyllum/Bryophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bryophyllum est un genre (ou un sous-genre) de plantes de la famille des Crassulaceae, proche des Kalanchoe, composé de 26 espèces originaires de Madagascar[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryophyllum est un genre (ou un sous-genre) de plantes de la famille des Crassulaceae, proche des Kalanchoe, composé de 26 espèces originaires de Madagascar.
 Les bords des feuilles produisent  souvent de grandes quantités de petites plantes (propagules) qui, en tombant, font naitre de nouvelles plantes.
 Depuis deux siècles, les botanistes ont proposé deux types de classification avec 
 soit un genre unique Kalanchoe au sens large incluant les Bryophyllum comme sous-genre
@@ -517,14 +529,16 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryophyllum sont proches des Kalanchoe. Lorsque Michel Adanson créa le genre Kalanchoe en 1763, il le définit par des feuilles opposées, des fleurs tétramères, gamopétales et obdiplostémones[n 1]. En 1806, le botaniste britannique Salisbury établit le genre Bryophyllum avec des caractères génériques empruntés à l'espèce malgache Bryophyllum calycinum : les fleurs tétramères comme celles des Kalanchoe se distinguent de ces dernières par le fait d'être pendantes (et non dressées), d'avoir des nectaires courts et des styles longs.
 Depuis cette époque, les botanistes hésitent à rassembler le même groupe de Crassulaceae :
 - soit en un genre unique Kalanchoe sensu lato (au sens large)
-- soit en deux ou trois genres distincts, Kalanchoe sensu stricto et Bryophyllum, avec éventuellement Kitchingia[1].
-La séparation des Kalanchoe et des Bryophyllum a prévalu assez largement sauf chez les quelques botanistes qui connaissent bien les espèces malgaches sur le terrain (H. Humbert, H. Perrier, P. Boiteau, W. Rauh) et quelques autres[1] (Koorders, 1918-1920 ; Backer, 1948 ; Backer &amp; van den Brink, 1963 ; etc.). Les partisans d'une unification maintiennent toutefois une subdivision de Kalanchoe sensu lato en sous-genres ou sections (Boiteau, 1947, Boiteau et als, 1948, 1949, 1995, Descoings[2],[1], 2003, 2006, Chernetskyy[3], 2011) et leur point de vue semble l'emporter actuellement.
-Tous les auteurs sont d'accord pour distinguer deux unités taxonomiques bien définies et distinctes Kalanchoe et Bryophyllum. La difficulté découle de l'existence de nombreuses espèces qui ne rentrent pas correctement dans l'une ou l'autre définition. Les six caractères discriminants retenus par Descoings[1] 2006, sont résumés dans le tableau suivant :
+- soit en deux ou trois genres distincts, Kalanchoe sensu stricto et Bryophyllum, avec éventuellement Kitchingia.
+La séparation des Kalanchoe et des Bryophyllum a prévalu assez largement sauf chez les quelques botanistes qui connaissent bien les espèces malgaches sur le terrain (H. Humbert, H. Perrier, P. Boiteau, W. Rauh) et quelques autres (Koorders, 1918-1920 ; Backer, 1948 ; Backer &amp; van den Brink, 1963 ; etc.). Les partisans d'une unification maintiennent toutefois une subdivision de Kalanchoe sensu lato en sous-genres ou sections (Boiteau, 1947, Boiteau et als, 1948, 1949, 1995, Descoings 2003, 2006, Chernetskyy, 2011) et leur point de vue semble l'emporter actuellement.
+Tous les auteurs sont d'accord pour distinguer deux unités taxonomiques bien définies et distinctes Kalanchoe et Bryophyllum. La difficulté découle de l'existence de nombreuses espèces qui ne rentrent pas correctement dans l'une ou l'autre définition. Les six caractères discriminants retenus par Descoings 2006, sont résumés dans le tableau suivant :
 Les espèces intermédiaires sont plutôt Kalankoe pour les unes et plutôt Bryophyllum pour les autres, suivant la proportion de critères qui font balancer d'un côté ou de l'autre. Mais comme il faut bien mettre quelque part ces taxons très nombreux, Descoings considère plus simple de maintenir un seul genre au sens large, incluant tout le monde.
 Pour Descoings, le genre Kalanchoe sensu lato comporte 155 espèces, se décomposant en 58 espèces de Kalanchoe sensu stricto, 26 Bryophyllum, 66 d'intermédiaires et le reste fait de quelques hybrides artificiels. Les groupes Kalanchoe sensu stricto et Bryophyllum sont considérés comme des sous-genre de Kalanchoe sensu lato. Les espèces intermédiaires sont rassemblées dans le sous-genre Calophygia.
 En Afrique et en Asie, n'existe que le sous-genre Kalanchoe et des espèces intermédiaires de Calophygia. À Madagascar, le sous-genre Kalanchoe est réduit à 7 espèces, le sous-genre Bryophyllum comporte 26 espèces et le groupe intermédiaire domine avec 42 espèces. Ce dernier groupe constitue donc un très large terme de passage entre le sous-genre Kalanchoe et le sous-genre Bryophyllum.
@@ -556,9 +570,11 @@
           <t>Espèces du sous-genre Bryophyllum (Salisb.) Koorders</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après Descoings[1], 2006, le sous-genre Bryiphyllum est formé de :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après Descoings, 2006, le sous-genre Bryiphyllum est formé de :
 Bryophyllum bognerii Rauh
 Bryophyllum cymbifolia Descoings
 Bryophyllum daigremontianum Hamet &amp; H. Perrier, =Kalanchoe daigremontiana
